--- a/data/trans_orig/P29A-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P29A-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>138109</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>122511</v>
+        <v>121184</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>154105</v>
+        <v>156040</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5137177954197817</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4556978529607298</v>
+        <v>0.4507601143315706</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5732146703411583</v>
+        <v>0.5804118469263935</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>69</v>
@@ -765,19 +765,19 @@
         <v>72488</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>58704</v>
+        <v>57151</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>88036</v>
+        <v>86552</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.278959302405297</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2259143199614957</v>
+        <v>0.2199394427801211</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3387950461336838</v>
+        <v>0.3330845252761549</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>208</v>
@@ -786,19 +786,19 @@
         <v>210597</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>191104</v>
+        <v>189735</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>233472</v>
+        <v>232028</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3983350797070276</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3614650286579579</v>
+        <v>0.358874894838854</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4416019564057023</v>
+        <v>0.4388713967909939</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>130734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>114738</v>
+        <v>112803</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146332</v>
+        <v>147659</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4862822045802183</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4267853296588417</v>
+        <v>0.4195881530736066</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5443021470392702</v>
+        <v>0.5492398856684294</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>175</v>
@@ -836,19 +836,19 @@
         <v>187362</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>171814</v>
+        <v>173298</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>201146</v>
+        <v>202699</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.721040697594703</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6612049538663164</v>
+        <v>0.6669154747238452</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7740856800385043</v>
+        <v>0.780060557219879</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>304</v>
@@ -857,19 +857,19 @@
         <v>318096</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>295221</v>
+        <v>296665</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>337589</v>
+        <v>338958</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6016649202929724</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5583980435942979</v>
+        <v>0.5611286032090063</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6385349713420421</v>
+        <v>0.6411251051611464</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>205718</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>181794</v>
+        <v>184467</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>226578</v>
+        <v>230086</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4250445854556986</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3756140484954839</v>
+        <v>0.3811372576559314</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.46814416321628</v>
+        <v>0.4753938037151592</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -982,19 +982,19 @@
         <v>57701</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45966</v>
+        <v>44749</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74778</v>
+        <v>72956</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1156966246859459</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09216567599194864</v>
+        <v>0.08972618542358225</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1499380467137081</v>
+        <v>0.1462836596855165</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>256</v>
@@ -1003,19 +1003,19 @@
         <v>263419</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>235972</v>
+        <v>236027</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>289601</v>
+        <v>289680</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2680510004717006</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2401209099165974</v>
+        <v>0.240177354598185</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2946937309407814</v>
+        <v>0.294773977469035</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>278273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>257413</v>
+        <v>253905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>302197</v>
+        <v>299524</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5749554145443013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5318558367837199</v>
+        <v>0.5246061962848404</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6243859515045159</v>
+        <v>0.6188627423440687</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>437</v>
@@ -1053,19 +1053,19 @@
         <v>441028</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>423951</v>
+        <v>425773</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>452763</v>
+        <v>453980</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8843033753140541</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8500619532862925</v>
+        <v>0.8537163403144832</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9078343240080514</v>
+        <v>0.9102738145764177</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>694</v>
@@ -1074,19 +1074,19 @@
         <v>719301</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>693119</v>
+        <v>693040</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>746748</v>
+        <v>746693</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7319489995282994</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7053062690592186</v>
+        <v>0.705226022530965</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7598790900834026</v>
+        <v>0.7598226454018145</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>186342</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>166892</v>
+        <v>169431</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>203761</v>
+        <v>203679</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5933393841691781</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5314077846924936</v>
+        <v>0.5394903363731876</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6488025860161516</v>
+        <v>0.6485402902734484</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>84</v>
@@ -1199,19 +1199,19 @@
         <v>83148</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>68324</v>
+        <v>68661</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100223</v>
+        <v>99998</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2493408845722551</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2048852922562258</v>
+        <v>0.2058975146341761</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3005430267406939</v>
+        <v>0.2998701712323882</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>268</v>
@@ -1220,19 +1220,19 @@
         <v>269491</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>242510</v>
+        <v>242511</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>294559</v>
+        <v>292563</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.416182988066316</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3745159566310161</v>
+        <v>0.3745169050534486</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4548966184407997</v>
+        <v>0.4518136503229055</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>127715</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>110296</v>
+        <v>110378</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>147165</v>
+        <v>144626</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.406660615830822</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3511974139838483</v>
+        <v>0.3514597097265517</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4685922153075064</v>
+        <v>0.4605096636268123</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>249</v>
@@ -1270,19 +1270,19 @@
         <v>250324</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>233249</v>
+        <v>233474</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>265148</v>
+        <v>264811</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7506591154277449</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6994569732593061</v>
+        <v>0.700129828767612</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7951147077437742</v>
+        <v>0.794102485365824</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>371</v>
@@ -1291,19 +1291,19 @@
         <v>378039</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>352971</v>
+        <v>354967</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>405020</v>
+        <v>405019</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.583817011933684</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5451033815592001</v>
+        <v>0.5481863496770945</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6254840433689839</v>
+        <v>0.6254830949465513</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>230244</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>212487</v>
+        <v>211113</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>248075</v>
+        <v>246917</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6490415789287821</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.598985305964793</v>
+        <v>0.5951131461854516</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6993063364766993</v>
+        <v>0.6960417716956708</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>130</v>
@@ -1416,19 +1416,19 @@
         <v>128153</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>110636</v>
+        <v>109516</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>149476</v>
+        <v>146704</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3450011575427669</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.297844579123621</v>
+        <v>0.2948288006261248</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4024069000047244</v>
+        <v>0.3949418370489637</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>360</v>
@@ -1437,19 +1437,19 @@
         <v>358397</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>331894</v>
+        <v>333408</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>383479</v>
+        <v>383840</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4935230839638573</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4570271712566104</v>
+        <v>0.45911235462803</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5280622783512818</v>
+        <v>0.528558327944408</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>124501</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>106670</v>
+        <v>107828</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>142258</v>
+        <v>143632</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3509584210712179</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3006936635233007</v>
+        <v>0.3039582283043292</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.401014694035207</v>
+        <v>0.4048868538145484</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>254</v>
@@ -1487,19 +1487,19 @@
         <v>243303</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>221980</v>
+        <v>224752</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>260820</v>
+        <v>261940</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6549988424572331</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5975930999952748</v>
+        <v>0.6050581629510363</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7021554208763787</v>
+        <v>0.7051711993738753</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>382</v>
@@ -1508,19 +1508,19 @@
         <v>367804</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>342722</v>
+        <v>342361</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>394307</v>
+        <v>392793</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5064769160361428</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4719377216487186</v>
+        <v>0.471441672055592</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5429728287433898</v>
+        <v>0.5408876453719701</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>84422</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70763</v>
+        <v>70097</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>98382</v>
+        <v>97733</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4261787656999093</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3572246461211336</v>
+        <v>0.3538633128677099</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4966545562033829</v>
+        <v>0.493375935978169</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>34</v>
@@ -1633,19 +1633,19 @@
         <v>37778</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27336</v>
+        <v>27610</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>50472</v>
+        <v>50294</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1827866352051222</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1322648339718018</v>
+        <v>0.1335880472575956</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2442055670638608</v>
+        <v>0.2433444426009935</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>119</v>
@@ -1654,19 +1654,19 @@
         <v>122199</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102471</v>
+        <v>103170</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>141367</v>
+        <v>140516</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3019006482964231</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2531613627478766</v>
+        <v>0.2548877602118498</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3492543191256473</v>
+        <v>0.3471539992284739</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>113668</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99708</v>
+        <v>100357</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127327</v>
+        <v>127993</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5738212343000907</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5033454437966171</v>
+        <v>0.506624064021831</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6427753538788665</v>
+        <v>0.6461366871322901</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -1704,19 +1704,19 @@
         <v>168900</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>156206</v>
+        <v>156384</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>179342</v>
+        <v>179068</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8172133647948778</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7557944329361396</v>
+        <v>0.7566555573990066</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.867735166028199</v>
+        <v>0.8664119527424045</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>279</v>
@@ -1725,19 +1725,19 @@
         <v>282568</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>263400</v>
+        <v>264251</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>302296</v>
+        <v>301597</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.698099351703577</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6507456808743526</v>
+        <v>0.6528460007715261</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7468386372521232</v>
+        <v>0.7451122397881502</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>190326</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>174731</v>
+        <v>175437</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>203937</v>
+        <v>203177</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7080658322864615</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6500469177912176</v>
+        <v>0.652672907563177</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7587041344420513</v>
+        <v>0.7558734473890734</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>104</v>
@@ -1850,19 +1850,19 @@
         <v>107666</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>90368</v>
+        <v>93196</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>123540</v>
+        <v>126371</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3899838958472489</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3273280525670924</v>
+        <v>0.337572740075228</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4474821815626187</v>
+        <v>0.4577367412359103</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>288</v>
@@ -1871,19 +1871,19 @@
         <v>297992</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>273278</v>
+        <v>275952</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>322701</v>
+        <v>321674</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5468994388119914</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5015431737671847</v>
+        <v>0.5064498298494968</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5922483750833113</v>
+        <v>0.5903628766887494</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>78471</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>64860</v>
+        <v>65620</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>94066</v>
+        <v>93360</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2919341677135385</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2412958655579487</v>
+        <v>0.2441265526109268</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3499530822087825</v>
+        <v>0.3473270924368231</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>164</v>
@@ -1921,19 +1921,19 @@
         <v>168412</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>152538</v>
+        <v>149707</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>185710</v>
+        <v>182882</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6100161041527511</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5525178184373812</v>
+        <v>0.5422632587640898</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6726719474329076</v>
+        <v>0.6624272599247722</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>244</v>
@@ -1942,19 +1942,19 @@
         <v>246883</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>222174</v>
+        <v>223201</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>271597</v>
+        <v>268923</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4531005611880086</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4077516249166879</v>
+        <v>0.4096371233112505</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4984568262328151</v>
+        <v>0.4935501701505032</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>272730</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>248474</v>
+        <v>247340</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>298143</v>
+        <v>299227</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4508318550149436</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.410735785782423</v>
+        <v>0.4088621660995275</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4928413315757761</v>
+        <v>0.4946327181114369</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>125</v>
@@ -2067,19 +2067,19 @@
         <v>125398</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>106830</v>
+        <v>105365</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>146365</v>
+        <v>147081</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1978729037129929</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1685741589968693</v>
+        <v>0.1662624379338525</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2309584793214291</v>
+        <v>0.2320889619192715</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>390</v>
@@ -2088,19 +2088,19 @@
         <v>398127</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>364268</v>
+        <v>367857</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>431508</v>
+        <v>431877</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3214136691811985</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2940786210483519</v>
+        <v>0.296975921543039</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3483623826484959</v>
+        <v>0.3486604482066867</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>332218</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>306805</v>
+        <v>305721</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>356474</v>
+        <v>357608</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5491681449850564</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5071586684242241</v>
+        <v>0.5053672818885635</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5892642142175771</v>
+        <v>0.5911378339004725</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>492</v>
@@ -2138,19 +2138,19 @@
         <v>508330</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>487363</v>
+        <v>486647</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>526898</v>
+        <v>528363</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8021270962870072</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7690415206785711</v>
+        <v>0.7679110380807286</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8314258410031308</v>
+        <v>0.8337375620661476</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>815</v>
@@ -2159,19 +2159,19 @@
         <v>840549</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>807168</v>
+        <v>806799</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>874408</v>
+        <v>870819</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6785863308188015</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6516376173515043</v>
+        <v>0.6513395517933136</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7059213789516481</v>
+        <v>0.703024078456961</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>468204</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>439403</v>
+        <v>440155</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>492567</v>
+        <v>494242</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6334498632413458</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.594483901722899</v>
+        <v>0.5955006031652317</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6664113051439835</v>
+        <v>0.6686773323840455</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>202</v>
@@ -2284,19 +2284,19 @@
         <v>211524</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>185758</v>
+        <v>186384</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>235469</v>
+        <v>238661</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2710842587322276</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2380635079008408</v>
+        <v>0.2388652473605112</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3017724044119819</v>
+        <v>0.305862322749462</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>661</v>
@@ -2305,19 +2305,19 @@
         <v>679728</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>643524</v>
+        <v>638841</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>720826</v>
+        <v>720459</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4473596803998045</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4235325832724406</v>
+        <v>0.4204503471688532</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4744081194550247</v>
+        <v>0.4741668573744321</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>270930</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>246567</v>
+        <v>244892</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>299731</v>
+        <v>298979</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3665501367586542</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3335886948560164</v>
+        <v>0.3313226676159544</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4055160982771009</v>
+        <v>0.4044993968347683</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>540</v>
@@ -2355,19 +2355,19 @@
         <v>568764</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>544819</v>
+        <v>541627</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>594530</v>
+        <v>593904</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7289157412677725</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6982275955880181</v>
+        <v>0.6941376772505377</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7619364920991591</v>
+        <v>0.7611347526394887</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>812</v>
@@ -2376,19 +2376,19 @@
         <v>839693</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>798595</v>
+        <v>798962</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>875897</v>
+        <v>880580</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5526403196001956</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5255918805449752</v>
+        <v>0.5258331426255678</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5764674167275593</v>
+        <v>0.5795496528311468</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>1776095</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1718666</v>
+        <v>1717318</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1833147</v>
+        <v>1832464</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.549431724284705</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5316664268579521</v>
+        <v>0.5312491237462529</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5670807539612612</v>
+        <v>0.5668694940074696</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>805</v>
@@ -2501,19 +2501,19 @@
         <v>823855</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>773835</v>
+        <v>776109</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>874933</v>
+        <v>875981</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2451746687844678</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2302887827110085</v>
+        <v>0.2309656674307581</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2603749789322897</v>
+        <v>0.2606870401159073</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2550</v>
@@ -2522,19 +2522,19 @@
         <v>2599950</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2530457</v>
+        <v>2511439</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2688011</v>
+        <v>2677054</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3943571309997094</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3838165261303975</v>
+        <v>0.3809318527772326</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4077141257472668</v>
+        <v>0.4060521204997483</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1456508</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1399456</v>
+        <v>1400139</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1513937</v>
+        <v>1515285</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.450568275715295</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4329192460387386</v>
+        <v>0.4331305059925304</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4683335731420479</v>
+        <v>0.468750876253747</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2474</v>
@@ -2572,19 +2572,19 @@
         <v>2536424</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2485346</v>
+        <v>2484298</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2586444</v>
+        <v>2584170</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7548253312155322</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7396250210677104</v>
+        <v>0.7393129598840927</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7697112172889916</v>
+        <v>0.7690343325692418</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3901</v>
@@ -2593,19 +2593,19 @@
         <v>3992932</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3904871</v>
+        <v>3915828</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4062425</v>
+        <v>4081443</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6056428690002905</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5922858742527332</v>
+        <v>0.5939478795002517</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6161834738696025</v>
+        <v>0.6190681472227674</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>165746</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>148614</v>
+        <v>146990</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>182802</v>
+        <v>182149</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5641684387576371</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5058512341487117</v>
+        <v>0.5003258698811421</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6222234547842598</v>
+        <v>0.6200003628597973</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>83</v>
@@ -2962,19 +2962,19 @@
         <v>96413</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>79697</v>
+        <v>81606</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>113930</v>
+        <v>113395</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3405100374101383</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2814707639378945</v>
+        <v>0.288212809290611</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4023747499517201</v>
+        <v>0.4004854464095752</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>242</v>
@@ -2983,19 +2983,19 @@
         <v>262160</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>236701</v>
+        <v>238354</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>286068</v>
+        <v>288934</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4544025712496177</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4102734536600597</v>
+        <v>0.4131393659551467</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4958423915074466</v>
+        <v>0.5008087118996155</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>128043</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>110987</v>
+        <v>111640</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>145175</v>
+        <v>146799</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4358315612423629</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3777765452157402</v>
+        <v>0.3799996371402027</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4941487658512884</v>
+        <v>0.4996741301188579</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>170</v>
@@ -3033,19 +3033,19 @@
         <v>186731</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>169214</v>
+        <v>169749</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>203447</v>
+        <v>201538</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6594899625898617</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5976252500482799</v>
+        <v>0.5995145535904247</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7185292360621054</v>
+        <v>0.711787190709389</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>292</v>
@@ -3054,19 +3054,19 @@
         <v>314774</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>290866</v>
+        <v>288000</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>340233</v>
+        <v>338580</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5455974287503823</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5041576084925535</v>
+        <v>0.4991912881003844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5897265463399404</v>
+        <v>0.5868606340448533</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>274259</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>250299</v>
+        <v>252145</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>293979</v>
+        <v>297349</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5731085043340982</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.523038641843378</v>
+        <v>0.5268962638908402</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6143164097777689</v>
+        <v>0.6213586308586568</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -3179,19 +3179,19 @@
         <v>121138</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>101826</v>
+        <v>102086</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>142644</v>
+        <v>141612</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2391603115641949</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2010345995268461</v>
+        <v>0.2015465861988885</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2816194722107724</v>
+        <v>0.2795834785243663</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>368</v>
@@ -3200,19 +3200,19 @@
         <v>395397</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>362656</v>
+        <v>365322</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>427045</v>
+        <v>430154</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4013941619226764</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.368155851412228</v>
+        <v>0.3708629821571118</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.433521360200083</v>
+        <v>0.4366775705871099</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>204288</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>184568</v>
+        <v>181198</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>228248</v>
+        <v>226402</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4268914956659018</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3856835902222311</v>
+        <v>0.3786413691413431</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4769613581566219</v>
+        <v>0.4731037361091597</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>353</v>
@@ -3250,19 +3250,19 @@
         <v>385374</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>363868</v>
+        <v>364900</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>404686</v>
+        <v>404426</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7608396884358051</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7183805277892277</v>
+        <v>0.7204165214756337</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.798965400473154</v>
+        <v>0.7984534138011116</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>542</v>
@@ -3271,19 +3271,19 @@
         <v>589663</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>558015</v>
+        <v>554906</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>622404</v>
+        <v>619738</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5986058380773236</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.566478639799917</v>
+        <v>0.56332242941289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6318441485877719</v>
+        <v>0.6291370178428882</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>175153</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>157879</v>
+        <v>156216</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>192095</v>
+        <v>191333</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5750645935617789</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5183504542474071</v>
+        <v>0.5128886493564118</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6306870264050511</v>
+        <v>0.628185728873547</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -3396,19 +3396,19 @@
         <v>107780</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90212</v>
+        <v>92115</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>125444</v>
+        <v>126374</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3255569099289937</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2724936939117943</v>
+        <v>0.2782396622091573</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.378913664809561</v>
+        <v>0.3817238438083926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>274</v>
@@ -3417,19 +3417,19 @@
         <v>282933</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>257066</v>
+        <v>258778</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>307856</v>
+        <v>309597</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4451132585824495</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4044182813421299</v>
+        <v>0.4071122830250614</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4843215735810784</v>
+        <v>0.487061884188767</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>129427</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112485</v>
+        <v>113247</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>146701</v>
+        <v>148364</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4249354064382212</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3693129735949489</v>
+        <v>0.371814271126453</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4816495457525929</v>
+        <v>0.487111350643588</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>210</v>
@@ -3467,19 +3467,19 @@
         <v>223282</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>205618</v>
+        <v>204688</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>240850</v>
+        <v>238947</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6744430900710063</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6210863351904389</v>
+        <v>0.6182761561916075</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7275063060882057</v>
+        <v>0.7217603377908426</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>333</v>
@@ -3488,19 +3488,19 @@
         <v>352710</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>327787</v>
+        <v>326046</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>378577</v>
+        <v>376865</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5548867414175506</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5156784264189216</v>
+        <v>0.5129381158112331</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.59558171865787</v>
+        <v>0.5928877169749387</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>168327</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>147568</v>
+        <v>148088</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>189280</v>
+        <v>187688</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4703964146371386</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4123851937502762</v>
+        <v>0.4138384014504222</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5289501243781989</v>
+        <v>0.5245023956388375</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>68</v>
@@ -3613,19 +3613,19 @@
         <v>71327</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57326</v>
+        <v>56491</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>88852</v>
+        <v>88477</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1855499887767392</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1491277826373837</v>
+        <v>0.1469545863137358</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2311387758383702</v>
+        <v>0.2301631274271624</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>221</v>
@@ -3634,19 +3634,19 @@
         <v>239655</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>214626</v>
+        <v>214360</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>266156</v>
+        <v>268674</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3228752927939956</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.289155129322458</v>
+        <v>0.2887972708270573</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3585794929956089</v>
+        <v>0.3619717518169872</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>189514</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>168561</v>
+        <v>170153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>210273</v>
+        <v>209753</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5296035853628613</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4710498756218012</v>
+        <v>0.4754976043611625</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5876148062497237</v>
+        <v>0.5861615985495778</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>299</v>
@@ -3684,19 +3684,19 @@
         <v>313082</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>295557</v>
+        <v>295932</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>327083</v>
+        <v>327918</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8144500112232609</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7688612241616298</v>
+        <v>0.7698368725728379</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8508722173626163</v>
+        <v>0.8530454136862643</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>476</v>
@@ -3705,19 +3705,19 @@
         <v>502596</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>476095</v>
+        <v>473577</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>527625</v>
+        <v>527891</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6771247072060044</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6414205070043909</v>
+        <v>0.6380282481830127</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.710844870677542</v>
+        <v>0.7112027291729422</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>121921</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>106774</v>
+        <v>106043</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>137052</v>
+        <v>137177</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5734258908426727</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5021870107758304</v>
+        <v>0.4987482185524463</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6445942606727203</v>
+        <v>0.6451819111980943</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>45</v>
@@ -3830,19 +3830,19 @@
         <v>47566</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>35929</v>
+        <v>35678</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>60749</v>
+        <v>60401</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.216609664002917</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1636177814464671</v>
+        <v>0.1624727256498809</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2766462959466585</v>
+        <v>0.2750615591416853</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>157</v>
@@ -3851,19 +3851,19 @@
         <v>169486</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>149850</v>
+        <v>149387</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>192623</v>
+        <v>191967</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3921394647583133</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3467069686692341</v>
+        <v>0.3456365835783243</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4456699970481781</v>
+        <v>0.4441532448970063</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>90697</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75566</v>
+        <v>75441</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>105844</v>
+        <v>106575</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4265741091573272</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3554057393272798</v>
+        <v>0.3548180888019059</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4978129892241694</v>
+        <v>0.5012517814475537</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>167</v>
@@ -3901,19 +3901,19 @@
         <v>172025</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>158842</v>
+        <v>159190</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183662</v>
+        <v>183913</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.783390335997083</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7233537040533414</v>
+        <v>0.7249384408583144</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8363822185535326</v>
+        <v>0.837527274350119</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>251</v>
@@ -3922,19 +3922,19 @@
         <v>262723</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>239586</v>
+        <v>240242</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>282359</v>
+        <v>282822</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6078605352416867</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.554330002951822</v>
+        <v>0.5558467551029938</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6532930313307664</v>
+        <v>0.6543634164216757</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>172492</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>156796</v>
+        <v>156689</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>187733</v>
+        <v>188238</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6533310940194212</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5938811435411456</v>
+        <v>0.5934776383391908</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7110576780887691</v>
+        <v>0.7129703507938018</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>79</v>
@@ -4047,19 +4047,19 @@
         <v>82092</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>67486</v>
+        <v>67535</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>97115</v>
+        <v>96709</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2964498895748577</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.243706788514406</v>
+        <v>0.243881096086595</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3507015137816844</v>
+        <v>0.3492354251555806</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>244</v>
@@ -4068,19 +4068,19 @@
         <v>254583</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>231071</v>
+        <v>232048</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>279041</v>
+        <v>277150</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4706360112214958</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4271698595890568</v>
+        <v>0.4289765062938543</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5158498684966778</v>
+        <v>0.5123529499078385</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>91527</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>76286</v>
+        <v>75781</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>107223</v>
+        <v>107330</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3466689059805788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2889423219112309</v>
+        <v>0.2870296492061983</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4061188564588544</v>
+        <v>0.4065223616608092</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>187</v>
@@ -4118,19 +4118,19 @@
         <v>194824</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>179801</v>
+        <v>180207</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>209430</v>
+        <v>209381</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7035501104251423</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6492984862183157</v>
+        <v>0.6507645748444194</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7562932114855944</v>
+        <v>0.756118903913405</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>273</v>
@@ -4139,19 +4139,19 @@
         <v>286352</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>261894</v>
+        <v>263785</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>309864</v>
+        <v>308887</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5293639887785042</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4841501315033225</v>
+        <v>0.4876470500921615</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5728301404109434</v>
+        <v>0.5710234937061458</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>360237</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>334121</v>
+        <v>336349</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>384245</v>
+        <v>386664</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.570054002002837</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5287271207003049</v>
+        <v>0.5322525786120795</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6080464869487917</v>
+        <v>0.6118735993479449</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>170</v>
@@ -4264,19 +4264,19 @@
         <v>186721</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>163884</v>
+        <v>162680</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>213457</v>
+        <v>212595</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2725518524400364</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2392171060679002</v>
+        <v>0.2374585323726214</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3115768855952888</v>
+        <v>0.3103191794342378</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>513</v>
@@ -4285,19 +4285,19 @@
         <v>546958</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>509455</v>
+        <v>509527</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>583592</v>
+        <v>583107</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4152996581534321</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.386824574039093</v>
+        <v>0.3868787834411826</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4431155505294871</v>
+        <v>0.4427473818088816</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>271697</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>247689</v>
+        <v>245270</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>297813</v>
+        <v>295585</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.429945997997163</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3919535130512083</v>
+        <v>0.3881264006520551</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4712728792996951</v>
+        <v>0.4677474213879204</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>458</v>
@@ -4335,19 +4335,19 @@
         <v>498365</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>471629</v>
+        <v>472491</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>521202</v>
+        <v>522406</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7274481475599636</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6884231144047112</v>
+        <v>0.6896808205657624</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7607828939320999</v>
+        <v>0.7625414676273787</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>707</v>
@@ -4356,19 +4356,19 @@
         <v>770061</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>733427</v>
+        <v>733912</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>807564</v>
+        <v>807492</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5847003418465678</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.556884449470513</v>
+        <v>0.5572526181911184</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6131754259609071</v>
+        <v>0.6131212165588175</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>399692</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>371652</v>
+        <v>374609</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>429675</v>
+        <v>427278</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5465901599058056</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5082448091626136</v>
+        <v>0.5122882767826392</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5875921083459457</v>
+        <v>0.5843140702270634</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>167</v>
@@ -4481,19 +4481,19 @@
         <v>181867</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>157887</v>
+        <v>157739</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>205302</v>
+        <v>206678</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2274991108813411</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.197502580184427</v>
+        <v>0.1973170354594898</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2568142963069569</v>
+        <v>0.2585351990662454</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>533</v>
@@ -4502,19 +4502,19 @@
         <v>581559</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>545802</v>
+        <v>541618</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>626345</v>
+        <v>619835</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3799388122123816</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3565780915849492</v>
+        <v>0.3538443614115475</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4091979093420948</v>
+        <v>0.4049446812530349</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>331555</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>301572</v>
+        <v>303969</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>359595</v>
+        <v>356638</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4534098400941944</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4124078916540543</v>
+        <v>0.4156859297729366</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4917551908373863</v>
+        <v>0.4877117232173608</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>567</v>
@@ -4552,19 +4552,19 @@
         <v>617552</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>594117</v>
+        <v>592741</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>641532</v>
+        <v>641680</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7725008891186589</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7431857036930432</v>
+        <v>0.7414648009337547</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.802497419815573</v>
+        <v>0.8026829645405102</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>875</v>
@@ -4573,19 +4573,19 @@
         <v>949107</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>904321</v>
+        <v>910831</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>984864</v>
+        <v>989048</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6200611877876183</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5908020906579056</v>
+        <v>0.5950553187469652</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6434219084150509</v>
+        <v>0.6461556385884525</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1837828</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1774135</v>
+        <v>1771575</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1898444</v>
+        <v>1893930</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.56124154546533</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5417908981698415</v>
+        <v>0.5410088729545064</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5797526621171611</v>
+        <v>0.5783740792954402</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>822</v>
@@ -4698,19 +4698,19 @@
         <v>894904</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>843060</v>
+        <v>842200</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>947068</v>
+        <v>946304</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2567033003525215</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.241832000728409</v>
+        <v>0.2415850684756998</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2716665644391829</v>
+        <v>0.2714474600550966</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2552</v>
@@ -4719,19 +4719,19 @@
         <v>2732732</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2655018</v>
+        <v>2653261</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2817787</v>
+        <v>2814858</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4042074143537748</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3927125951333919</v>
+        <v>0.3924526499848574</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.416788199352423</v>
+        <v>0.4163550058203425</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>1436748</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1376132</v>
+        <v>1380646</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1500441</v>
+        <v>1503001</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4387584545346701</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4202473378828389</v>
+        <v>0.4216259207045598</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4582091018301585</v>
+        <v>0.4589911270454936</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2411</v>
@@ -4769,19 +4769,19 @@
         <v>2591237</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2539073</v>
+        <v>2539837</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2643081</v>
+        <v>2643941</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7432966996474785</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7283334355608171</v>
+        <v>0.7285525399449032</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.758167999271591</v>
+        <v>0.7584149315243002</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3749</v>
@@ -4790,19 +4790,19 @@
         <v>4027984</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3942929</v>
+        <v>3945858</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4105698</v>
+        <v>4107455</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5957925856462252</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5832118006475768</v>
+        <v>0.5836449941796572</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6072874048666079</v>
+        <v>0.6075473500151426</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>172040</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>154680</v>
+        <v>153564</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>189677</v>
+        <v>187470</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5970495451147915</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5368027309673683</v>
+        <v>0.5329309264934273</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6582586956162614</v>
+        <v>0.6505985412251195</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -5159,19 +5159,19 @@
         <v>98180</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83109</v>
+        <v>81380</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>114671</v>
+        <v>114455</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.349295635049811</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2956786734121535</v>
+        <v>0.2895261709807039</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4079661185397017</v>
+        <v>0.407199049751319</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>256</v>
@@ -5180,19 +5180,19 @@
         <v>270220</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246116</v>
+        <v>247147</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>295284</v>
+        <v>296498</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4747114683366454</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4323665262329999</v>
+        <v>0.4341781844980334</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5187445637294326</v>
+        <v>0.5208771681222537</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>116110</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>98473</v>
+        <v>100680</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>133470</v>
+        <v>134586</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4029504548852086</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3417413043837387</v>
+        <v>0.3494014587748804</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4631972690326317</v>
+        <v>0.4670690735065726</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>173</v>
@@ -5230,19 +5230,19 @@
         <v>182899</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>166408</v>
+        <v>166624</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>197970</v>
+        <v>199699</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6507043649501889</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5920338814602985</v>
+        <v>0.5928009502486811</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7043213265878471</v>
+        <v>0.7104738290192967</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>275</v>
@@ -5251,19 +5251,19 @@
         <v>299009</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>273945</v>
+        <v>272731</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>323113</v>
+        <v>322082</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5252885316633545</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4812554362705678</v>
+        <v>0.4791228318777463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5676334737670005</v>
+        <v>0.5658218155019666</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>253531</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>230241</v>
+        <v>231539</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>274315</v>
+        <v>277272</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.5169283165813968</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.469442242528651</v>
+        <v>0.4720889602999342</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5593053220227782</v>
+        <v>0.565333552224489</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>88</v>
@@ -5376,19 +5376,19 @@
         <v>92615</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76127</v>
+        <v>75137</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111247</v>
+        <v>109991</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1793688278687285</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1474362685588378</v>
+        <v>0.1455194610309362</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2154524450602144</v>
+        <v>0.213021575317562</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>329</v>
@@ -5397,19 +5397,19 @@
         <v>346146</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>314562</v>
+        <v>316326</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>377600</v>
+        <v>373343</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3438097158510385</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3124390473878638</v>
+        <v>0.3141911510653438</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3750513188792583</v>
+        <v>0.370823022929778</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>236926</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>216142</v>
+        <v>213185</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>260216</v>
+        <v>258918</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4830716834186032</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4406946779772222</v>
+        <v>0.4346664477755111</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5305577574713491</v>
+        <v>0.5279110397000655</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>390</v>
@@ -5447,19 +5447,19 @@
         <v>423724</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>405092</v>
+        <v>406348</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>440212</v>
+        <v>441202</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8206311721312716</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7845475549397856</v>
+        <v>0.7869784246824379</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8525637314411622</v>
+        <v>0.8544805389690636</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>612</v>
@@ -5468,19 +5468,19 @@
         <v>660650</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>629196</v>
+        <v>633453</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>692234</v>
+        <v>690470</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6561902841489614</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6249486811207415</v>
+        <v>0.6291769770702219</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6875609526121362</v>
+        <v>0.6858088489346561</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>183455</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>168181</v>
+        <v>166086</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>200541</v>
+        <v>198602</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6199763164173544</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5683587251756987</v>
+        <v>0.561278203526013</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6777170921254815</v>
+        <v>0.6711640269420579</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>118</v>
@@ -5593,19 +5593,19 @@
         <v>114659</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>96717</v>
+        <v>98701</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>131292</v>
+        <v>132534</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3470434261613191</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2927353282532497</v>
+        <v>0.2987415305626975</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3973873253577977</v>
+        <v>0.4011448756310018</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>309</v>
@@ -5614,19 +5614,19 @@
         <v>298115</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>274725</v>
+        <v>272903</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>324723</v>
+        <v>321455</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4759963977647113</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4386510069532777</v>
+        <v>0.4357410840198579</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5184813618986589</v>
+        <v>0.5132642140137663</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>112452</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>95366</v>
+        <v>97305</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>127726</v>
+        <v>129821</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3800236835826455</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3222829078745179</v>
+        <v>0.3288359730579421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4316412748243013</v>
+        <v>0.438721796473987</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>208</v>
@@ -5664,19 +5664,19 @@
         <v>215730</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>199097</v>
+        <v>197855</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>233672</v>
+        <v>231688</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6529565738386809</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6026126746422023</v>
+        <v>0.5988551243689982</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7072646717467503</v>
+        <v>0.7012584694373025</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>329</v>
@@ -5685,19 +5685,19 @@
         <v>328181</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>301573</v>
+        <v>304841</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>351571</v>
+        <v>353393</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5240036022352886</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.481518638101341</v>
+        <v>0.4867357859862337</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5613489930467219</v>
+        <v>0.564258915980142</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>213033</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>194098</v>
+        <v>193842</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>231450</v>
+        <v>231300</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5910398587743592</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5385070291098715</v>
+        <v>0.5377966983683731</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6421366345131041</v>
+        <v>0.6417198425414156</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -5810,19 +5810,19 @@
         <v>135884</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117295</v>
+        <v>118985</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>156187</v>
+        <v>157060</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3591177717523396</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3099898694794277</v>
+        <v>0.3144585701744182</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4127747961763537</v>
+        <v>0.4150822508961786</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>328</v>
@@ -5831,19 +5831,19 @@
         <v>348916</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>319388</v>
+        <v>319296</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>377233</v>
+        <v>374718</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4722622560577239</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4322964787245819</v>
+        <v>0.4321720569592611</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5105895526227979</v>
+        <v>0.5071860112627821</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>147404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>128987</v>
+        <v>129137</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>166339</v>
+        <v>166595</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4089601412256408</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3578633654868958</v>
+        <v>0.3582801574585844</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4614929708901285</v>
+        <v>0.4622033016316269</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>224</v>
@@ -5881,19 +5881,19 @@
         <v>242498</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>222195</v>
+        <v>221322</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>261087</v>
+        <v>259397</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6408822282476605</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5872252038236464</v>
+        <v>0.5849177491038218</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6900101305205724</v>
+        <v>0.6855414298255819</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>368</v>
@@ -5902,19 +5902,19 @@
         <v>389902</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>361585</v>
+        <v>364100</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>419430</v>
+        <v>419522</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5277377439422761</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4894104473772019</v>
+        <v>0.4928139887372179</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.567703521275418</v>
+        <v>0.5678279430407386</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>85956</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>72352</v>
+        <v>71416</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100426</v>
+        <v>101323</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4142245904952629</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3486697602870938</v>
+        <v>0.34415608534146</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4839560607459494</v>
+        <v>0.4882817334890507</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>40</v>
@@ -6027,19 +6027,19 @@
         <v>37474</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>28154</v>
+        <v>27700</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>48576</v>
+        <v>49778</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1714378926519204</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1288017649879684</v>
+        <v>0.1267248475997502</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.222226691867033</v>
+        <v>0.2277255130814713</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -6048,19 +6048,19 @@
         <v>123430</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>104614</v>
+        <v>106914</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142186</v>
+        <v>144093</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2896753854515886</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2455175912739511</v>
+        <v>0.2509137120269429</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3336947078920274</v>
+        <v>0.3381684321922636</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>121554</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>107084</v>
+        <v>106187</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>135158</v>
+        <v>136094</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5857754095047371</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5160439392540507</v>
+        <v>0.5117182665109494</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6513302397129063</v>
+        <v>0.6558439146585401</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>183</v>
@@ -6098,19 +6098,19 @@
         <v>181113</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>170011</v>
+        <v>168809</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>190433</v>
+        <v>190887</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8285621073480797</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7777733081329665</v>
+        <v>0.7722744869185277</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8711982350120313</v>
+        <v>0.8732751524002492</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>305</v>
@@ -6119,19 +6119,19 @@
         <v>302667</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>283911</v>
+        <v>282004</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>321483</v>
+        <v>319183</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7103246145484114</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6663052921079736</v>
+        <v>0.6618315678077364</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7544824087260491</v>
+        <v>0.7490862879730571</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>182352</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>166982</v>
+        <v>168035</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>196936</v>
+        <v>196223</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7057530570300687</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6462693218740836</v>
+        <v>0.6503420356341628</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7621967658341635</v>
+        <v>0.7594390144189257</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>101</v>
@@ -6244,19 +6244,19 @@
         <v>101711</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>87690</v>
+        <v>86079</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>118145</v>
+        <v>118753</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3751015931207624</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3233936835697576</v>
+        <v>0.3174521037576892</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.435708755911393</v>
+        <v>0.4379500395378833</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>280</v>
@@ -6265,19 +6265,19 @@
         <v>284063</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>261152</v>
+        <v>263302</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>306604</v>
+        <v>308370</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5364384470933306</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.493173154514542</v>
+        <v>0.4972333683408389</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5790057691027285</v>
+        <v>0.5823414394428219</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>76027</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>61443</v>
+        <v>62156</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91397</v>
+        <v>90344</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2942469429699313</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2378032341658358</v>
+        <v>0.2405609855810742</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3537306781259158</v>
+        <v>0.3496579643658367</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>160</v>
@@ -6315,19 +6315,19 @@
         <v>169445</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>153011</v>
+        <v>152403</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>183466</v>
+        <v>185077</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6248984068792376</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5642912440886071</v>
+        <v>0.5620499604621161</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6766063164302425</v>
+        <v>0.6825478962423107</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>235</v>
@@ -6336,19 +6336,19 @@
         <v>245472</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>222931</v>
+        <v>221165</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>268383</v>
+        <v>266233</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4635615529066694</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4209942308972714</v>
+        <v>0.4176585605571785</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5068268454854579</v>
+        <v>0.5027666316591611</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>368902</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>338519</v>
+        <v>342427</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>393592</v>
+        <v>392974</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5757434752433028</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5283248613294056</v>
+        <v>0.5344239357271563</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6142769657881118</v>
+        <v>0.61331154748938</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>233</v>
@@ -6461,19 +6461,19 @@
         <v>248952</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>224695</v>
+        <v>221589</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>275503</v>
+        <v>275401</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3641013912489825</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3286252474526442</v>
+        <v>0.3240824617459107</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4029338925903972</v>
+        <v>0.4027846298155263</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>554</v>
@@ -6482,19 +6482,19 @@
         <v>617855</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>577530</v>
+        <v>581893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>654300</v>
+        <v>653868</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4664867727432909</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4360410660348416</v>
+        <v>0.439335410949265</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4940030382767979</v>
+        <v>0.4936768553998623</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>271839</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>247149</v>
+        <v>247767</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>302222</v>
+        <v>298314</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4242565247566971</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3857230342118886</v>
+        <v>0.38668845251062</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4716751386705947</v>
+        <v>0.4655760642728437</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>406</v>
@@ -6532,19 +6532,19 @@
         <v>434791</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>408240</v>
+        <v>408342</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>459048</v>
+        <v>462154</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6358986087510174</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.5970661074096029</v>
+        <v>0.5972153701844737</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6713747525473558</v>
+        <v>0.6759175382540894</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>652</v>
@@ -6553,19 +6553,19 @@
         <v>706630</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>670185</v>
+        <v>670617</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>746955</v>
+        <v>742592</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5335132272567091</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5059969617232022</v>
+        <v>0.5063231446001377</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.5639589339651583</v>
+        <v>0.560664589050735</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>418737</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>392532</v>
+        <v>391433</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>444173</v>
+        <v>447143</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5613365491525827</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5262080241754884</v>
+        <v>0.5247342461510034</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5954346832432853</v>
+        <v>0.5994169543924749</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>223</v>
@@ -6678,19 +6678,19 @@
         <v>242511</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>215152</v>
+        <v>216820</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>267285</v>
+        <v>269636</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2999935353750117</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.266148846129607</v>
+        <v>0.2682122692701476</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3306387484312703</v>
+        <v>0.3335468505533261</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>621</v>
@@ -6699,19 +6699,19 @@
         <v>661249</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>618619</v>
+        <v>620710</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>702588</v>
+        <v>698834</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4254171074244463</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3979907803337453</v>
+        <v>0.399336475091529</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4520128556395325</v>
+        <v>0.4495980076909932</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>327227</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>301791</v>
+        <v>298821</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>353432</v>
+        <v>354531</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.4386634508474173</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4045653167567148</v>
+        <v>0.4005830456075252</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4737919758245117</v>
+        <v>0.4752657538489966</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>516</v>
@@ -6749,19 +6749,19 @@
         <v>565878</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>541104</v>
+        <v>538753</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>593237</v>
+        <v>591569</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7000064646249884</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6693612515687298</v>
+        <v>0.6664531494466738</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7338511538703931</v>
+        <v>0.7317877307298525</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>838</v>
@@ -6770,19 +6770,19 @@
         <v>893105</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>851766</v>
+        <v>855520</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>935735</v>
+        <v>933644</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5745828925755536</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5479871443604675</v>
+        <v>0.5504019923090068</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6020092196662548</v>
+        <v>0.600663524908471</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1878006</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1821687</v>
+        <v>1815089</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1938203</v>
+        <v>1936022</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5712487024919554</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5541174959153125</v>
+        <v>0.5521106653349013</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5895592624350849</v>
+        <v>0.588895667768373</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1027</v>
@@ -6895,19 +6895,19 @@
         <v>1071986</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1015186</v>
+        <v>1016326</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1126891</v>
+        <v>1129597</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3073298513986732</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2910457329842283</v>
+        <v>0.2913726335161162</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3230707321412163</v>
+        <v>0.3238464347878498</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2803</v>
@@ -6916,19 +6916,19 @@
         <v>2949993</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2863798</v>
+        <v>2862290</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3027170</v>
+        <v>3031437</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4353840613056019</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.422662718392703</v>
+        <v>0.4224402528644248</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4467745291122596</v>
+        <v>0.4474043556272251</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>1409540</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1349343</v>
+        <v>1351524</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1465859</v>
+        <v>1472457</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4287512975080446</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4104407375649151</v>
+        <v>0.4111043322316271</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4458825040846877</v>
+        <v>0.4478893346650988</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2260</v>
@@ -6966,19 +6966,19 @@
         <v>2416078</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2361173</v>
+        <v>2358467</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2472878</v>
+        <v>2471738</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6926701486013268</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6769292678587836</v>
+        <v>0.6761535652121501</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7089542670157717</v>
+        <v>0.7086273664838838</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>3614</v>
@@ -6987,19 +6987,19 @@
         <v>3825617</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>3748440</v>
+        <v>3744173</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>3911812</v>
+        <v>3913320</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5646159386943982</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.5532254708877404</v>
+        <v>0.5525956443727746</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.577337281607297</v>
+        <v>0.5775597471355743</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>169898</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>150934</v>
+        <v>151779</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>187389</v>
+        <v>187070</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5328560158733383</v>
+        <v>0.5328560158733385</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4733785351165561</v>
+        <v>0.4760283561850953</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5877131162196955</v>
+        <v>0.5867125493844356</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>163</v>
@@ -7356,19 +7356,19 @@
         <v>97231</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>83818</v>
+        <v>85561</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>110042</v>
+        <v>111484</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3076347599723087</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2651962691237807</v>
+        <v>0.2707098725947618</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3481673660489348</v>
+        <v>0.3527291646580277</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>347</v>
@@ -7377,19 +7377,19 @@
         <v>267130</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>244589</v>
+        <v>242445</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>291816</v>
+        <v>290906</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4207392876256543</v>
+        <v>0.4207392876256544</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3852369821868443</v>
+        <v>0.3818590634103388</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4596214083600703</v>
+        <v>0.4581880336258154</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>148947</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>131456</v>
+        <v>131775</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>167911</v>
+        <v>167066</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.4671439841266617</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4122868837803046</v>
+        <v>0.4132874506155644</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5266214648834439</v>
+        <v>0.5239716438149048</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>375</v>
@@ -7427,19 +7427,19 @@
         <v>218830</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>206019</v>
+        <v>204577</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>232243</v>
+        <v>230500</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6923652400276913</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6518326339510653</v>
+        <v>0.6472708353419723</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7348037308762193</v>
+        <v>0.7292901274052382</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>522</v>
@@ -7448,19 +7448,19 @@
         <v>367776</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>343090</v>
+        <v>344000</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>390317</v>
+        <v>392461</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5792607123743456</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5403785916399296</v>
+        <v>0.5418119663741845</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6147630178131558</v>
+        <v>0.6181409365896612</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>259856</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>226736</v>
+        <v>229075</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>286043</v>
+        <v>286964</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4917898445980368</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.429108714335708</v>
+        <v>0.4335340469480339</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5413491241613039</v>
+        <v>0.5430923071990846</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -7573,19 +7573,19 @@
         <v>122883</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>105541</v>
+        <v>104469</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>143166</v>
+        <v>142542</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2251087459565554</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1933401180461312</v>
+        <v>0.1913763646025273</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2622645973999659</v>
+        <v>0.2611225792959194</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>326</v>
@@ -7594,19 +7594,19 @@
         <v>382739</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>348714</v>
+        <v>348914</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>418060</v>
+        <v>417993</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3562779176542253</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3246052323356996</v>
+        <v>0.3247906773156861</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3891569249609385</v>
+        <v>0.3890944049183535</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>268533</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>242346</v>
+        <v>241425</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>301653</v>
+        <v>299314</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5082101554019632</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.458650875838696</v>
+        <v>0.4569076928009154</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.570891285664292</v>
+        <v>0.5664659530519659</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>570</v>
@@ -7644,19 +7644,19 @@
         <v>423000</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>402717</v>
+        <v>403341</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>440342</v>
+        <v>441414</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7748912540434446</v>
+        <v>0.7748912540434445</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7377354026000342</v>
+        <v>0.7388774207040807</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8066598819538691</v>
+        <v>0.8086236353974727</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>770</v>
@@ -7665,19 +7665,19 @@
         <v>691533</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>656212</v>
+        <v>656279</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>725558</v>
+        <v>725358</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.6437220823457748</v>
+        <v>0.6437220823457747</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6108430750390614</v>
+        <v>0.6109055950816463</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6753947676643002</v>
+        <v>0.6752093226843138</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>187312</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170300</v>
+        <v>168473</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>203474</v>
+        <v>204030</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5927735935893661</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5389367062774346</v>
+        <v>0.5331543399988213</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6439205581559913</v>
+        <v>0.645678732476022</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>124</v>
@@ -7790,19 +7790,19 @@
         <v>88779</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75788</v>
+        <v>74389</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>104003</v>
+        <v>103187</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.249415522648033</v>
+        <v>0.2494155226480331</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2129187516756431</v>
+        <v>0.2089879148456271</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2921851256091746</v>
+        <v>0.2898924578232007</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>336</v>
@@ -7811,19 +7811,19 @@
         <v>276092</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>252754</v>
+        <v>251498</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>298939</v>
+        <v>298100</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4108857108975802</v>
+        <v>0.4108857108975804</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3761533090276082</v>
+        <v>0.374283618956904</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4448866124626076</v>
+        <v>0.4436376231097247</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>128681</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112519</v>
+        <v>111963</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>145693</v>
+        <v>147520</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.4072264064106339</v>
+        <v>0.407226406410634</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3560794418440088</v>
+        <v>0.354321267523978</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4610632937225654</v>
+        <v>0.4668456600011787</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>411</v>
@@ -7861,19 +7861,19 @@
         <v>267171</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>251947</v>
+        <v>252763</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>280162</v>
+        <v>281561</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7505844773519669</v>
+        <v>0.750584477351967</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7078148743908251</v>
+        <v>0.7101075421767995</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7870812483243557</v>
+        <v>0.7910120851543728</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>559</v>
@@ -7882,19 +7882,19 @@
         <v>395852</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>373005</v>
+        <v>373844</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>419190</v>
+        <v>420446</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.5891142891024196</v>
+        <v>0.5891142891024197</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5551133875373926</v>
+        <v>0.5563623768902751</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6238466909723919</v>
+        <v>0.6257163810430957</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>203436</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>177833</v>
+        <v>174938</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>229716</v>
+        <v>228498</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.5451927318402247</v>
+        <v>0.5451927318402245</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4765775754967588</v>
+        <v>0.4688216599961724</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.6156225168715203</v>
+        <v>0.612357271130343</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>180</v>
@@ -8007,19 +8007,19 @@
         <v>138366</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>119548</v>
+        <v>119528</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>155053</v>
+        <v>157373</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3279124725875898</v>
+        <v>0.3279124725875899</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2833156396893856</v>
+        <v>0.2832680420282124</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3674574333326007</v>
+        <v>0.3729562092052655</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>341</v>
@@ -8028,19 +8028,19 @@
         <v>341803</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>306632</v>
+        <v>308551</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>371471</v>
+        <v>375988</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4298825581851939</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.385648847612276</v>
+        <v>0.3880619255397412</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4671960902694793</v>
+        <v>0.472877239223322</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>169709</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>143429</v>
+        <v>144647</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>195312</v>
+        <v>198207</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4548072681597755</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3843774831284797</v>
+        <v>0.3876427288696573</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5234224245032411</v>
+        <v>0.5311783400038277</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>419</v>
@@ -8078,19 +8078,19 @@
         <v>283595</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>266908</v>
+        <v>264588</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>302413</v>
+        <v>302433</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6720875274124103</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6325425666673994</v>
+        <v>0.6270437907947348</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7166843603106141</v>
+        <v>0.7167319579717877</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>550</v>
@@ -8099,19 +8099,19 @@
         <v>453304</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>423636</v>
+        <v>419119</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>488475</v>
+        <v>486556</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5701174418148062</v>
+        <v>0.5701174418148061</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5328039097305209</v>
+        <v>0.527122760776678</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6143511523877243</v>
+        <v>0.6119380744602588</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>34137</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>25070</v>
+        <v>26210</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>43565</v>
+        <v>45137</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1659840522959068</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1218973538421381</v>
+        <v>0.127438132776225</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2118238473843305</v>
+        <v>0.2194661702662291</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -8224,19 +8224,19 @@
         <v>10845</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6363</v>
+        <v>6590</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18641</v>
+        <v>18959</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0477281820427899</v>
+        <v>0.04772818204278989</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02800616269937602</v>
+        <v>0.02900447374449767</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08204228009373382</v>
+        <v>0.08344149165668094</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>65</v>
@@ -8245,19 +8245,19 @@
         <v>44982</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>35278</v>
+        <v>35624</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>57227</v>
+        <v>57636</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1039125593178427</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08149681219974174</v>
+        <v>0.08229583448618684</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1322009762461174</v>
+        <v>0.1331456967898444</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>171528</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>162100</v>
+        <v>160528</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>180595</v>
+        <v>179455</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.834015947704093</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7881761526156696</v>
+        <v>0.7805338297337709</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8781026461578622</v>
+        <v>0.872561867223775</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>473</v>
@@ -8295,19 +8295,19 @@
         <v>216370</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>208574</v>
+        <v>208256</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>220852</v>
+        <v>220625</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9522718179572101</v>
+        <v>0.9522718179572099</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9179577199062661</v>
+        <v>0.9165585083433191</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9719938373006239</v>
+        <v>0.9709955262555023</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>706</v>
@@ -8316,19 +8316,19 @@
         <v>387897</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>375652</v>
+        <v>375243</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>397601</v>
+        <v>397255</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8960874406821572</v>
+        <v>0.8960874406821575</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8677990237538824</v>
+        <v>0.8668543032101556</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.918503187800258</v>
+        <v>0.9177041655138131</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>162549</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>148254</v>
+        <v>147649</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>175759</v>
+        <v>176006</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6030843923687788</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5500467030434004</v>
+        <v>0.5478034859221353</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.6520967709850968</v>
+        <v>0.6530142131586678</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>148</v>
@@ -8441,19 +8441,19 @@
         <v>98194</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>86859</v>
+        <v>85825</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>111638</v>
+        <v>111502</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3722986900141824</v>
+        <v>0.3722986900141822</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3293249851525836</v>
+        <v>0.325403387065405</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4232730042013074</v>
+        <v>0.4227557535706299</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>358</v>
@@ -8462,19 +8462,19 @@
         <v>260743</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>242708</v>
+        <v>241023</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>279669</v>
+        <v>280587</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4889420047253615</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4551221975826566</v>
+        <v>0.4519635023327939</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5244327478637271</v>
+        <v>0.526154159458478</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>106980</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>93770</v>
+        <v>93523</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>121275</v>
+        <v>121880</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3969156076312213</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3479032290149034</v>
+        <v>0.3469857868413322</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4499532969565997</v>
+        <v>0.4521965140778647</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>312</v>
@@ -8512,19 +8512,19 @@
         <v>165556</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>152112</v>
+        <v>152248</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>176891</v>
+        <v>177925</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6277013099858179</v>
+        <v>0.6277013099858175</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5767269957986927</v>
+        <v>0.5772442464293702</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6706750148474164</v>
+        <v>0.6745966129345952</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>471</v>
@@ -8533,19 +8533,19 @@
         <v>272537</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>253611</v>
+        <v>252693</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>290572</v>
+        <v>292257</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5110579952746385</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4755672521362728</v>
+        <v>0.473845840541522</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5448778024173433</v>
+        <v>0.5480364976672062</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>350886</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>320641</v>
+        <v>320372</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>383554</v>
+        <v>380858</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4906498117871931</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4483574233579312</v>
+        <v>0.447981561775495</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5363300809148267</v>
+        <v>0.5325598499471502</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>289</v>
@@ -8658,19 +8658,19 @@
         <v>236397</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>212628</v>
+        <v>213967</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>260763</v>
+        <v>263016</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3082384623577463</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2772455348982518</v>
+        <v>0.278991582580586</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3400089332327562</v>
+        <v>0.3429463550992186</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>581</v>
@@ -8679,19 +8679,19 @@
         <v>587283</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>552092</v>
+        <v>549102</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>626930</v>
+        <v>627028</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3962574289272917</v>
+        <v>0.3962574289272918</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.37251268863085</v>
+        <v>0.3704953913716914</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4230082903428357</v>
+        <v>0.4230743175191583</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>364260</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>331592</v>
+        <v>334288</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>394505</v>
+        <v>394774</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5093501882128069</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4636699190851729</v>
+        <v>0.4674401500528497</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5516425766420686</v>
+        <v>0.5520184382245052</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>664</v>
@@ -8729,19 +8729,19 @@
         <v>530532</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>506166</v>
+        <v>503913</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>554301</v>
+        <v>552962</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6917615376422538</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6599910667672437</v>
+        <v>0.6570536449007813</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7227544651017478</v>
+        <v>0.721008417419414</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>967</v>
@@ -8750,19 +8750,19 @@
         <v>894792</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>855145</v>
+        <v>855047</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>929983</v>
+        <v>932973</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6037425710727082</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5769917096571643</v>
+        <v>0.5769256824808418</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.62748731136915</v>
+        <v>0.6295046086283086</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>314336</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>283320</v>
+        <v>288390</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>341975</v>
+        <v>341360</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3938687065128916</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.355005425689811</v>
+        <v>0.361357751968326</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4285010551250709</v>
+        <v>0.4277309593632591</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>137</v>
@@ -8875,19 +8875,19 @@
         <v>114954</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>98610</v>
+        <v>97910</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>134226</v>
+        <v>134567</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1388321531022315</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1190937824770705</v>
+        <v>0.1182485790406846</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1621073981279435</v>
+        <v>0.1625202033733661</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>440</v>
@@ -8896,19 +8896,19 @@
         <v>429289</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>395211</v>
+        <v>394796</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>465916</v>
+        <v>464517</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2640031338252151</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2430457817331538</v>
+        <v>0.2427907659626023</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2865276331728612</v>
+        <v>0.2856672435522701</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>483736</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>456097</v>
+        <v>456712</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>514752</v>
+        <v>509682</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6061312934871084</v>
+        <v>0.6061312934871085</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5714989448749292</v>
+        <v>0.5722690406367409</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6449945743101888</v>
+        <v>0.6386422480316738</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>921</v>
@@ -8946,19 +8946,19 @@
         <v>713050</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>693778</v>
+        <v>693437</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>729394</v>
+        <v>730094</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.8611678468977684</v>
+        <v>0.8611678468977686</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8378926018720565</v>
+        <v>0.837479796626634</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8809062175229294</v>
+        <v>0.8817514209593152</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1380</v>
@@ -8967,19 +8967,19 @@
         <v>1196787</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1160160</v>
+        <v>1161559</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1230865</v>
+        <v>1231280</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.735996866174785</v>
+        <v>0.7359968661747849</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7134723668271388</v>
+        <v>0.7143327564477296</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7569542182668462</v>
+        <v>0.7572092340373976</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>1682411</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1618351</v>
+        <v>1620061</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1743631</v>
+        <v>1748100</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.477308954453693</v>
+        <v>0.4773089544536929</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4591346901349567</v>
+        <v>0.4596197230485993</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4946772610502415</v>
+        <v>0.495945228327597</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1206</v>
@@ -9092,19 +9092,19 @@
         <v>907649</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>857278</v>
+        <v>857440</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>955803</v>
+        <v>952784</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2436149707299671</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2300951768024301</v>
+        <v>0.2301385217580398</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2565394608114676</v>
+        <v>0.2557292656032618</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2794</v>
@@ -9113,19 +9113,19 @@
         <v>2590061</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2502898</v>
+        <v>2509831</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2671654</v>
+        <v>2674325</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.357223222035976</v>
+        <v>0.3572232220359761</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3452016612806921</v>
+        <v>0.3461578198209461</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.36847657135079</v>
+        <v>0.3688449789425959</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>1842374</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1781154</v>
+        <v>1776685</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1906434</v>
+        <v>1904724</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.5226910455463071</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5053227389497585</v>
+        <v>0.504054771672403</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5408653098650433</v>
+        <v>0.5403802769514007</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4145</v>
@@ -9163,19 +9163,19 @@
         <v>2818105</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2769951</v>
+        <v>2772970</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2868476</v>
+        <v>2868314</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7563850292700329</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7434605391885325</v>
+        <v>0.7442707343967382</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7699048231975698</v>
+        <v>0.7698614782419601</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>5925</v>
@@ -9184,19 +9184,19 @@
         <v>4660478</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4578885</v>
+        <v>4576214</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4747641</v>
+        <v>4740708</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.642776777964024</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6315234286492102</v>
+        <v>0.6311550210574043</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.654798338719308</v>
+        <v>0.653842180179054</v>
       </c>
     </row>
     <row r="30">
